--- a/resultados_10_modelos_financieros.xlsx
+++ b/resultados_10_modelos_financieros.xlsx
@@ -473,76 +473,76 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AdaBoost</t>
+          <t>DecisionTree</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.9366</v>
+        <v>4.6728</v>
       </c>
       <c r="C2" t="n">
-        <v>2.274</v>
+        <v>2.0979</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7194</v>
+        <v>0.7485000000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5661</v>
+        <v>0.4489</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.4053</v>
+        <v>-0.4149</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7272999999999999</v>
+        <v>0.5302</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ExtraTrees</t>
+          <t>KNN</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.0845</v>
+        <v>6.1217</v>
       </c>
       <c r="C3" t="n">
-        <v>2.4799</v>
+        <v>3.346</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7023</v>
+        <v>0.5684</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5439000000000001</v>
+        <v>0.3648</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.414</v>
+        <v>-0.4323</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6716</v>
+        <v>0.3679</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SVR_RBF</t>
+          <t>XGBoost</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8.227499999999999</v>
+        <v>5.2152</v>
       </c>
       <c r="C4" t="n">
-        <v>4.3329</v>
+        <v>2.4185</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2205</v>
+        <v>0.6868</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5058</v>
+        <v>0.3548</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.4635</v>
+        <v>-0.4146</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5461</v>
+        <v>0.3574</v>
       </c>
     </row>
     <row r="5">
@@ -552,172 +552,172 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.525</v>
+        <v>0.5609</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3776</v>
+        <v>0.4053</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9968</v>
+        <v>0.9964</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4911</v>
+        <v>0.2855</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.3777</v>
+        <v>-0.4254</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5608</v>
+        <v>0.2492</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>DecisionTree</t>
+          <t>RandomForest</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.6785</v>
+        <v>4.9069</v>
       </c>
       <c r="C6" t="n">
-        <v>2.1178</v>
+        <v>2.2075</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7479</v>
+        <v>0.7227</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4051</v>
+        <v>0.2677</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.4189</v>
+        <v>-0.4202</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4495</v>
+        <v>0.2272</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>XGBoost</t>
+          <t>ExtraTrees</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.0987</v>
+        <v>5.0353</v>
       </c>
       <c r="C7" t="n">
-        <v>2.3354</v>
+        <v>2.4522</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7006</v>
+        <v>0.708</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3861</v>
+        <v>0.247</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.4404</v>
+        <v>-0.4138</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4089</v>
+        <v>0.1865</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>MLP_NeuralNet</t>
+          <t>AdaBoost</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>73.5913</v>
+        <v>4.8796</v>
       </c>
       <c r="C8" t="n">
-        <v>36.5448</v>
+        <v>2.2369</v>
       </c>
       <c r="D8" t="n">
-        <v>-61.3665</v>
+        <v>0.7258</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2651</v>
+        <v>0.2185</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.4368</v>
+        <v>-0.3931</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2212</v>
+        <v>0.159</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>RandomForest</t>
+          <t>MLP_NeuralNet</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.917</v>
+        <v>70.31659999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>2.2119</v>
+        <v>36.0914</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7216</v>
+        <v>-55.9395</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2506</v>
+        <v>0.0871</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.4115</v>
+        <v>-0.4785</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2038</v>
+        <v>-0.0437</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>GradientBoosting</t>
+          <t>SVR_RBF</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.7686</v>
+        <v>8.0235</v>
       </c>
       <c r="C10" t="n">
-        <v>2.1254</v>
+        <v>4.2007</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7381</v>
+        <v>0.2586</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1517</v>
+        <v>0.0464</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.4306</v>
+        <v>-0.4652</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0745</v>
+        <v>-0.0563</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>KNN</t>
+          <t>GradientBoosting</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5.4026</v>
+        <v>4.8506</v>
       </c>
       <c r="C11" t="n">
-        <v>3.1104</v>
+        <v>2.1669</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6639</v>
+        <v>0.729</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1224</v>
+        <v>-0.0534</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.4376</v>
+        <v>-0.413</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0266</v>
+        <v>-0.1553</v>
       </c>
     </row>
   </sheetData>
